--- a/ExcelTool.xlsx
+++ b/ExcelTool.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-undervisning\devcronberg\sap-cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E95F26-9533-46A2-9DD5-A4FFAEDBAF1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MicroCode" sheetId="1" r:id="rId1"/>
     <sheet name="Instruktioner" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>AI</t>
   </si>
@@ -78,9 +85,6 @@
     <t>LDA</t>
   </si>
   <si>
-    <t>0000</t>
-  </si>
-  <si>
     <t>ADD</t>
   </si>
   <si>
@@ -96,18 +100,6 @@
     <t>Læg tal fra RAM til A</t>
   </si>
   <si>
-    <t>0110</t>
-  </si>
-  <si>
-    <t>0088</t>
-  </si>
-  <si>
-    <t>0040</t>
-  </si>
-  <si>
-    <t>0340</t>
-  </si>
-  <si>
     <t>8080</t>
   </si>
   <si>
@@ -136,12 +128,54 @@
   </si>
   <si>
     <t>8800</t>
+  </si>
+  <si>
+    <t>IO+MI</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>RO+AI</t>
+  </si>
+  <si>
+    <t>RO+BI</t>
+  </si>
+  <si>
+    <t>EO+AI</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>Halt</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>AO+OI</t>
+  </si>
+  <si>
+    <t>BO+OI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,20 +525,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="16" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,35 +582,41 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
       <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
@@ -597,20 +638,26 @@
       <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0"),TEXT(B2,"0"),TEXT(C2,"0"),TEXT(D2,"0"),TEXT(E2,"0"),TEXT(F2,"0"),TEXT(G2,"0"),TEXT(H2,"0"),TEXT(I2,"0"),TEXT(J2,"0"),TEXT(K2,"0"),TEXT(L2,"0"),TEXT(M2,"0"),TEXT(N2,"0"),"00")</f>
-        <v>1000100000000000</v>
-      </c>
-      <c r="Q2" s="2" t="str">
-        <f>CONCATENATE( BIN2HEX( LEFT(P2,8),2),BIN2HEX( RIGHT(P2,8),2))</f>
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P3" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P5" s="5"/>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0"),TEXT(B2,"0"),TEXT(C2,"0"),TEXT(D2,"0"),TEXT(E2,"0"),TEXT(F2,"0"),TEXT(G2,"0"),TEXT(H2,"0"),TEXT(I2,"0"),TEXT(J2,"0"),TEXT(K2,"0"),TEXT(L2,"0"),TEXT(M2,"0"),TEXT(N2,"0"),TEXT(O2,"0"),TEXT(P2,"0"))</f>
+        <v>0001001000000000</v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f>CONCATENATE( BIN2HEX( LEFT(R2,8),2),BIN2HEX( RIGHT(R2,8),2))</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R3" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,132 +666,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTool.xlsx
+++ b/ExcelTool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-undervisning\devcronberg\sap-cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E95F26-9533-46A2-9DD5-A4FFAEDBAF1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6205778-13F7-4D35-A43F-DA610A26E12B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MicroCode" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>AI</t>
   </si>
@@ -91,9 +91,6 @@
     <t>0001</t>
   </si>
   <si>
-    <t>0010</t>
-  </si>
-  <si>
     <t>Load fra RAM til A</t>
   </si>
   <si>
@@ -106,21 +103,9 @@
     <t>OUTA</t>
   </si>
   <si>
-    <t>OUTB</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
     <t>Send A til Output</t>
   </si>
   <si>
-    <t>Send B til Output</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
     <t>4200</t>
   </si>
   <si>
@@ -148,18 +133,9 @@
     <t>HL</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>HLT</t>
   </si>
   <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
     <t>Halt</t>
   </si>
   <si>
@@ -169,7 +145,61 @@
     <t>AO+OI</t>
   </si>
   <si>
-    <t>BO+OI</t>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>Save A til RAM</t>
+  </si>
+  <si>
+    <t>LIA</t>
+  </si>
+  <si>
+    <t>Literal til A</t>
+  </si>
+  <si>
+    <t>IO+AI</t>
+  </si>
+  <si>
+    <t>AO+RI</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>8004</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>Jump til adresse</t>
+  </si>
+  <si>
+    <t>IO+PI</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>IO+PE+PI</t>
+  </si>
+  <si>
+    <t>MOVAB</t>
+  </si>
+  <si>
+    <t>Kopi A til B</t>
+  </si>
+  <si>
+    <t>AO+BI</t>
+  </si>
+  <si>
+    <t>6000</t>
   </si>
 </sst>
 </file>
@@ -529,7 +559,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +613,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>14</v>
@@ -600,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -615,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -646,11 +676,11 @@
       </c>
       <c r="R2" s="2" t="str">
         <f>CONCATENATE(TEXT(A2,"0"),TEXT(B2,"0"),TEXT(C2,"0"),TEXT(D2,"0"),TEXT(E2,"0"),TEXT(F2,"0"),TEXT(G2,"0"),TEXT(H2,"0"),TEXT(I2,"0"),TEXT(J2,"0"),TEXT(K2,"0"),TEXT(L2,"0"),TEXT(M2,"0"),TEXT(N2,"0"),TEXT(O2,"0"),TEXT(P2,"0"))</f>
-        <v>0001001000000000</v>
+        <v>0110000000000000</v>
       </c>
       <c r="S2" s="2" t="str">
         <f>CONCATENATE( BIN2HEX( LEFT(R2,8),2),BIN2HEX( RIGHT(R2,8),2))</f>
-        <v>1200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -667,129 +697,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="str">
+        <f>BIN2HEX(C1)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="I1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B8" si="0">BIN2HEX(C2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>DEC2BIN(BIN2DEC(C1)+1,4)</f>
+        <v>0010</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C6" si="1">DEC2BIN(BIN2DEC(C2)+1,4)</f>
+        <v>0011</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>43</v>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" ref="C7" si="2">DEC2BIN(BIN2DEC(C6)+1,4)</f>
+        <v>0111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" ref="C8" si="3">DEC2BIN(BIN2DEC(C7)+1,4)</f>
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTool.xlsx
+++ b/ExcelTool.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-undervisning\devcronberg\sap-cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6205778-13F7-4D35-A43F-DA610A26E12B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MicroCode" sheetId="1" r:id="rId1"/>
     <sheet name="Instruktioner" sheetId="2" r:id="rId2"/>
+    <sheet name="Assembler" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>AI</t>
   </si>
@@ -200,12 +200,30 @@
   </si>
   <si>
     <t>6000</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>No operation</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,11 +573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,12 +714,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -910,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f t="shared" ref="C8" si="3">DEC2BIN(BIN2DEC(C7)+1,4)</f>
+        <f t="shared" ref="C8:C9" si="3">DEC2BIN(BIN2DEC(C7)+1,4)</f>
         <v>1000</v>
       </c>
       <c r="D8" t="s">
@@ -921,6 +937,153 @@
       </c>
       <c r="L8" s="5" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ref="B9" si="4">BIN2HEX(C9)</f>
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>1001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE(VLOOKUP(A1,Instruktioner!$A$1:$B$10,2, ),B1)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(VLOOKUP(A2,Instruktioner!$A$1:$B$10,2, ),B2)</f>
+        <v>5F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(VLOOKUP(A3,Instruktioner!$A$1:$B$10,2, ),B3)</f>
+        <v>2F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(VLOOKUP(A4,Instruktioner!$A$1:$B$10,2, ),B4)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(VLOOKUP(A5,Instruktioner!$A$1:$B$10,2, ),B5)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(VLOOKUP(A6,Instruktioner!$A$1:$B$10,2, ),B6)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(VLOOKUP(A7,Instruktioner!$A$1:$B$10,2, ),B7)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(VLOOKUP(A8,Instruktioner!$A$1:$B$10,2, ),B8)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(VLOOKUP(A9,Instruktioner!$A$1:$B$10,2, ),B9)</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
